--- a/Results/cab.xlsx
+++ b/Results/cab.xlsx
@@ -8,29 +8,29 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="()" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="()1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="()2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="()3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="()4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="()5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="()6" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="()7" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="()8" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="()9" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="()10" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="()11" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="()12" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="()13" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="()14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="()15" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="()16" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="()17" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="()18" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="()19" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="()20" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="()21" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="()22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="(0, 0)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="(0, 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="(0, 3)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="(0, 4)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="(0, 5)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="(1, 0)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="(1, 1)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="(1, 2)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="(1, 3)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="(1, 4)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="(1, 5)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="(2, 0)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="(2, 1)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="(2, 2)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="(2, 3)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="(2, 4)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="(2, 5)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="(3, 0)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="(3, 1)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="(3, 2)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="(3, 3)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="(3, 4)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="(3, 5)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -484,6 +484,11 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -505,7 +510,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -540,7 +545,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -575,7 +580,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -592,7 +597,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -618,7 +623,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -637,6 +642,11 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -658,7 +668,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -693,7 +703,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -728,7 +738,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -745,7 +755,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -771,7 +781,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -790,6 +800,11 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -811,7 +826,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -846,7 +861,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,7 +896,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -898,7 +913,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -924,7 +939,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -943,6 +958,11 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -964,7 +984,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -999,7 +1019,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1034,7 +1054,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1051,7 +1071,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1097,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1106,13 +1126,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184232.9662242233</v>
+        <v>184232.9662242235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1147,7 +1167,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1182,7 +1202,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1209,7 +1229,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1255,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1270,7 +1290,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1305,7 +1325,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1340,7 +1360,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1367,7 +1387,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1413,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1428,7 +1448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1463,7 +1483,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1498,7 +1518,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1515,7 +1535,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1561,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1576,7 +1596,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1611,7 +1631,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1646,7 +1666,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1663,7 +1683,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1709,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1724,7 +1744,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1759,7 +1779,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1784,7 +1804,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1801,7 +1821,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1837,7 +1857,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1857,6 +1877,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>F7</t>
         </is>
       </c>
@@ -1871,13 +1896,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184288.1128697362</v>
+        <v>184288.1128697358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1912,7 +1937,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1947,14 +1972,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -1980,7 +2005,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2015,7 +2040,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2050,7 +2075,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2075,7 +2100,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2092,7 +2117,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2128,7 +2153,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2163,7 +2188,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2198,7 +2223,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2233,7 +2258,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2250,7 +2275,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2301,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2311,7 +2336,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2346,7 +2371,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2381,7 +2406,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2398,7 +2423,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2434,7 +2459,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2469,7 +2494,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2504,7 +2529,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2529,7 +2554,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2546,7 +2571,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2582,7 +2607,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2617,7 +2642,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2652,7 +2677,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2677,7 +2702,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2694,7 +2719,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2730,7 +2755,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2765,7 +2790,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2790,7 +2815,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2815,7 +2840,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2832,7 +2857,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2880,7 +2905,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2915,7 +2940,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2950,7 +2975,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2985,7 +3010,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3002,7 +3027,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3038,7 +3063,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3073,7 +3098,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3108,7 +3133,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3143,7 +3168,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3160,7 +3185,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3211,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3221,7 +3246,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3256,7 +3281,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3291,7 +3316,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3308,7 +3333,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3359,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3369,7 +3394,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3404,7 +3429,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3439,7 +3464,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3456,7 +3481,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3507,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3501,6 +3526,11 @@
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
@@ -3522,7 +3552,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3557,7 +3587,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3582,7 +3612,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3599,7 +3629,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3635,7 +3665,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3664,13 +3694,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184232.9662242233</v>
+        <v>184232.9662242235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3705,7 +3735,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3740,7 +3770,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3757,7 +3787,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3793,7 +3823,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3828,7 +3858,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3863,7 +3893,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3898,7 +3928,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3915,7 +3945,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">

--- a/Results/cab.xlsx
+++ b/Results/cab.xlsx
@@ -465,7 +465,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184251.8833294109</v>
+        <v>184251.8833294106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -545,7 +545,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184251.8833294109</v>
+        <v>184251.8833294106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -703,7 +703,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184251.8833294109</v>
+        <v>184251.8833294106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -913,7 +913,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184251.8833294109</v>
+        <v>184251.8833294106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184232.9662242235</v>
+        <v>184232.9662242233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1167,7 +1167,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1202,7 +1202,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1229,7 +1229,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1290,7 +1290,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1387,7 +1387,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1483,7 +1483,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1535,7 +1535,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1631,7 +1631,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1666,7 +1666,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1683,7 +1683,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1779,7 +1779,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1902,7 +1902,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1937,7 +1937,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1972,14 +1972,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2040,7 +2040,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2075,7 +2075,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2223,7 +2223,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2275,7 +2275,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2336,7 +2336,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2371,7 +2371,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2459,7 +2459,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2554,7 +2554,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2607,7 +2607,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2642,7 +2642,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2677,7 +2677,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2702,7 +2702,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2719,7 +2719,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2755,7 +2755,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2815,7 +2815,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2840,7 +2840,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2905,7 +2905,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3027,7 +3027,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3063,7 +3063,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3133,7 +3133,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3185,7 +3185,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3281,7 +3281,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3333,7 +3333,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3429,7 +3429,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3481,7 +3481,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3546,13 +3546,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184251.8833294109</v>
+        <v>184251.8833294106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3587,7 +3587,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3612,7 +3612,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3629,7 +3629,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3665,7 +3665,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="I1" t="n">
-        <v>184232.9662242235</v>
+        <v>184232.9662242233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3735,7 +3735,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3787,7 +3787,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3823,7 +3823,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3893,7 +3893,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3945,7 +3945,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
